--- a/Location_based_analysis/heatmap/data/lps_R6.xlsx
+++ b/Location_based_analysis/heatmap/data/lps_R6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rainfall\Location_based_analysis\heatmap\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34019DF9-D6C1-4D80-8F88-91FD2C43ACF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCDF8EA-E33B-4AAB-A8EC-1EFA170B699F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>实验组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,22 @@
   </si>
   <si>
     <t>average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对照组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wv_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wv_y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,12 +113,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -386,35 +405,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:O17"/>
+    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="I1" s="3" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -433,26 +454,38 @@
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="R2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44409</v>
       </c>
@@ -474,29 +507,35 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="2">
+      <c r="H3" s="1">
+        <v>-0.75856884810721792</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-1.4661493395359708</v>
+      </c>
+      <c r="K3" s="2">
         <v>44378</v>
       </c>
-      <c r="J3" s="1">
+      <c r="L3" s="1">
         <v>1.595936273</v>
       </c>
-      <c r="K3" s="1">
+      <c r="M3" s="1">
         <v>0.38425617099999998</v>
       </c>
-      <c r="L3" s="1">
+      <c r="N3" s="1">
         <v>1.410776767</v>
       </c>
-      <c r="M3" s="1">
+      <c r="O3" s="1">
         <v>0.85333333300000003</v>
       </c>
-      <c r="N3" s="1">
+      <c r="P3" s="1">
         <v>0.79815242500000005</v>
       </c>
-      <c r="O3" s="1">
+      <c r="Q3" s="1">
         <v>2.1250878430000002</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44410</v>
       </c>
@@ -518,15 +557,15 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="2">
+      <c r="H4" s="1">
+        <v>-1.2308066424078121</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-0.65775776637821037</v>
+      </c>
+      <c r="K4" s="2">
         <v>44379</v>
       </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
       <c r="L4" s="1">
         <v>0</v>
       </c>
@@ -539,8 +578,14 @@
       <c r="O4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44411</v>
       </c>
@@ -562,29 +607,35 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="2">
+      <c r="H5" s="1">
+        <v>-0.91666712938877859</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7.3509602324365778E-2</v>
+      </c>
+      <c r="K5" s="2">
         <v>44380</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="1">
         <v>1.2966982220000001</v>
       </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
         <v>1.2535364529999999</v>
       </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
       <c r="O5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44412</v>
       </c>
@@ -606,15 +657,15 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="2">
+      <c r="H6" s="1">
+        <v>-0.99059382160185239</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.30940660404129944</v>
+      </c>
+      <c r="K6" s="2">
         <v>44381</v>
       </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
       <c r="L6" s="1">
         <v>0</v>
       </c>
@@ -627,8 +678,14 @@
       <c r="O6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44413</v>
       </c>
@@ -650,29 +707,35 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="2">
+      <c r="H7" s="1">
+        <v>-0.56781387167860931</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-0.1602310298067324</v>
+      </c>
+      <c r="K7" s="2">
         <v>44382</v>
       </c>
-      <c r="J7" s="1">
+      <c r="L7" s="1">
         <v>6.1971309579999998</v>
       </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
         <v>18.50107066</v>
       </c>
-      <c r="M7" s="1">
+      <c r="O7" s="1">
         <v>0.50197536600000003</v>
       </c>
-      <c r="N7" s="1">
+      <c r="P7" s="1">
         <v>4.2284393060000003</v>
       </c>
-      <c r="O7" s="1">
+      <c r="Q7" s="1">
         <v>2.2973410400000001</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44415</v>
       </c>
@@ -694,15 +757,15 @@
       <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="2">
+      <c r="H8" s="1">
+        <v>-1.7771861242939875E-3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-1.4233204452558292</v>
+      </c>
+      <c r="K8" s="2">
         <v>44383</v>
       </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
       <c r="L8" s="1">
         <v>0</v>
       </c>
@@ -715,8 +778,14 @@
       <c r="O8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44416</v>
       </c>
@@ -738,15 +807,15 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="2">
+      <c r="H9" s="1">
+        <v>-0.35377556123092363</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-1.1241238261475801</v>
+      </c>
+      <c r="K9" s="2">
         <v>44384</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
       <c r="L9" s="1">
         <v>0</v>
       </c>
@@ -759,8 +828,14 @@
       <c r="O9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44417</v>
       </c>
@@ -782,15 +857,15 @@
       <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="I10" s="2">
+      <c r="H10" s="1">
+        <v>-0.88378794392041693</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-0.86826538204736581</v>
+      </c>
+      <c r="K10" s="2">
         <v>44385</v>
       </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
       <c r="L10" s="1">
         <v>0</v>
       </c>
@@ -803,8 +878,14 @@
       <c r="O10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44418</v>
       </c>
@@ -826,29 +907,35 @@
       <c r="G11" s="1">
         <v>0</v>
       </c>
-      <c r="I11" s="2">
+      <c r="H11" s="1">
+        <v>-1.1876966774829012</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-0.39553435647997576</v>
+      </c>
+      <c r="K11" s="2">
         <v>44386</v>
       </c>
-      <c r="J11" s="1">
+      <c r="L11" s="1">
         <v>1.0972061879999999</v>
       </c>
-      <c r="K11" s="1">
+      <c r="M11" s="1">
         <v>0.88630535099999996</v>
       </c>
-      <c r="L11" s="1">
+      <c r="N11" s="1">
         <v>0.3</v>
       </c>
-      <c r="M11" s="1">
+      <c r="O11" s="1">
         <v>0.90798692199999997</v>
       </c>
-      <c r="N11" s="1">
+      <c r="P11" s="1">
         <v>2.5933964440000001</v>
       </c>
-      <c r="O11" s="1">
+      <c r="Q11" s="1">
         <v>0.21057762599999999</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44419</v>
       </c>
@@ -870,29 +957,35 @@
       <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="I12" s="2">
+      <c r="H12" s="1">
+        <v>-1.2962314928259067</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1.4176525267234502E-2</v>
+      </c>
+      <c r="K12" s="2">
         <v>44387</v>
       </c>
-      <c r="J12" s="1">
+      <c r="L12" s="1">
         <v>10.78576413</v>
       </c>
-      <c r="K12" s="1">
+      <c r="M12" s="1">
         <v>10.239780140000001</v>
       </c>
-      <c r="L12" s="1">
+      <c r="N12" s="1">
         <v>12.351464440000001</v>
       </c>
-      <c r="M12" s="1">
+      <c r="O12" s="1">
         <v>11.54540737</v>
       </c>
-      <c r="N12" s="1">
+      <c r="P12" s="1">
         <v>11.18963922</v>
       </c>
-      <c r="O12" s="1">
+      <c r="Q12" s="1">
         <v>14.81618497</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44420</v>
       </c>
@@ -914,29 +1007,35 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="I13" s="2">
+      <c r="H13" s="1">
+        <v>-1.1109684331112601</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-1.0526061772803823</v>
+      </c>
+      <c r="K13" s="2">
         <v>44388</v>
       </c>
-      <c r="J13" s="1">
+      <c r="L13" s="1">
         <v>22.092421439999999</v>
       </c>
-      <c r="K13" s="1">
+      <c r="M13" s="1">
         <v>24.32977099</v>
       </c>
-      <c r="L13" s="1">
+      <c r="N13" s="1">
         <v>23.978221420000001</v>
       </c>
-      <c r="M13" s="1">
+      <c r="O13" s="1">
         <v>12.740351799999999</v>
       </c>
-      <c r="N13" s="1">
+      <c r="P13" s="1">
         <v>11.18446602</v>
       </c>
-      <c r="O13" s="1">
+      <c r="Q13" s="1">
         <v>18.012485550000001</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44421</v>
       </c>
@@ -958,29 +1057,35 @@
       <c r="G14" s="1">
         <v>0</v>
       </c>
-      <c r="I14" s="2">
+      <c r="H14" s="1">
+        <v>-1.5653034271778961</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-1.0035637668030144</v>
+      </c>
+      <c r="K14" s="2">
         <v>44389</v>
       </c>
-      <c r="J14" s="1">
+      <c r="L14" s="1">
         <v>0.29958391099999998</v>
       </c>
-      <c r="K14" s="1">
+      <c r="M14" s="1">
         <v>1.017188604</v>
       </c>
-      <c r="L14" s="1">
+      <c r="N14" s="1">
         <v>0.59422283399999998</v>
       </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>0.29958391099999998</v>
       </c>
-      <c r="O14" s="1">
+      <c r="Q14" s="1">
         <v>0.69919075100000005</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44422</v>
       </c>
@@ -1002,15 +1107,15 @@
       <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="I15" s="2">
+      <c r="H15" s="1">
+        <v>-0.50037230300514735</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-0.9117871239551939</v>
+      </c>
+      <c r="K15" s="2">
         <v>44390</v>
       </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
       <c r="L15" s="1">
         <v>0</v>
       </c>
@@ -1023,8 +1128,14 @@
       <c r="O15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44426</v>
       </c>
@@ -1046,8 +1157,14 @@
       <c r="G16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H16" s="1">
+        <v>-0.89390142381410986</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-0.30286856324941835</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44427</v>
       </c>
@@ -1069,35 +1186,41 @@
       <c r="G17" s="1">
         <v>0</v>
       </c>
-      <c r="I17" t="s">
+      <c r="H17" s="1">
+        <v>-1.1148721308983625</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-0.77480375864346884</v>
+      </c>
+      <c r="K17" t="s">
         <v>8</v>
       </c>
-      <c r="J17">
-        <f>AVERAGE(J3:J15)</f>
+      <c r="L17">
+        <f>AVERAGE(L3:L15)</f>
         <v>3.3357493170769228</v>
       </c>
-      <c r="K17">
-        <f t="shared" ref="K17:O17" si="0">AVERAGE(K3:K15)</f>
+      <c r="M17">
+        <f t="shared" ref="M17:Q17" si="0">AVERAGE(M3:M15)</f>
         <v>2.8351770196923076</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <f t="shared" si="0"/>
         <v>4.4914840441538466</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <f t="shared" si="0"/>
         <v>2.0422349839230769</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <f t="shared" si="0"/>
         <v>2.3302828712307693</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <f t="shared" si="0"/>
         <v>2.9354513676923082</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44428</v>
       </c>
@@ -1119,8 +1242,14 @@
       <c r="G18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H18" s="1">
+        <v>-1.1282720304521652</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-0.10190484219878169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44429</v>
       </c>
@@ -1142,8 +1271,14 @@
       <c r="G19" s="1">
         <v>1.6022253129999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H19" s="1">
+        <v>-1.589174159668135</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.23177856786018372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44430</v>
       </c>
@@ -1165,8 +1300,14 @@
       <c r="G20" s="1">
         <v>2.8038942979999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H20" s="1">
+        <v>-0.82208347770748647</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.24227220690639117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44431</v>
       </c>
@@ -1188,8 +1329,14 @@
       <c r="G21" s="1">
         <v>44.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H21" s="1">
+        <v>-1.0669151755261448</v>
+      </c>
+      <c r="I21" s="1">
+        <v>-0.8837994069582068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44432</v>
       </c>
@@ -1211,8 +1358,14 @@
       <c r="G22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H22" s="1">
+        <v>-0.11159216111425267</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-1.8631497728009447</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44433</v>
       </c>
@@ -1234,8 +1387,14 @@
       <c r="G23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H23" s="1">
+        <v>-0.56218013412809642</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-1.3847523601664224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44434</v>
       </c>
@@ -1257,8 +1416,14 @@
       <c r="G24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H24" s="1">
+        <v>-0.34435806893499615</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-1.0452451254226585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44435</v>
       </c>
@@ -1280,8 +1445,14 @@
       <c r="G25" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H25" s="1">
+        <v>-0.47541351756344807</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-1.644207518754019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44436</v>
       </c>
@@ -1303,8 +1474,14 @@
       <c r="G26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H26" s="1">
+        <v>-1.2416418800420592</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-7.0007547205659673E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44437</v>
       </c>
@@ -1326,8 +1503,14 @@
       <c r="G27" s="1">
         <v>13.2907703</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H27" s="1">
+        <v>-1.8751947285118491</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-0.96357414751488168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44438</v>
       </c>
@@ -1349,8 +1532,14 @@
       <c r="G28" s="1">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H28" s="1">
+        <v>-0.56726567077304646</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-1.4450821436244781</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44441</v>
       </c>
@@ -1372,8 +1561,14 @@
       <c r="G29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H29" s="1">
+        <v>0.1281532063163312</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-2.0107992709601974</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44442</v>
       </c>
@@ -1395,8 +1590,14 @@
       <c r="G30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H30" s="1">
+        <v>1.2694869494267395E-2</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-1.8532666251352172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44443</v>
       </c>
@@ -1418,8 +1619,14 @@
       <c r="G31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H31" s="1">
+        <v>-0.27405483889703786</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-1.2329900523794888</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>44444</v>
       </c>
@@ -1441,8 +1648,14 @@
       <c r="G32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" s="1">
+        <v>-0.60062002125712455</v>
+      </c>
+      <c r="I32" s="1">
+        <v>-0.70302713013371487</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>44445</v>
       </c>
@@ -1464,8 +1677,14 @@
       <c r="G33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" s="1">
+        <v>0.29674305989811395</v>
+      </c>
+      <c r="I33" s="1">
+        <v>-2.3530041099480359</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44446</v>
       </c>
@@ -1487,8 +1706,14 @@
       <c r="G34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" s="1">
+        <v>3.8743395663501982E-2</v>
+      </c>
+      <c r="I34" s="1">
+        <v>-2.7886197632270182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>44447</v>
       </c>
@@ -1510,8 +1735,14 @@
       <c r="G35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" s="1">
+        <v>2.4501543577374565E-2</v>
+      </c>
+      <c r="I35" s="1">
+        <v>-1.6078862458765997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>44448</v>
       </c>
@@ -1533,8 +1764,14 @@
       <c r="G36" s="1">
         <v>7.6946564889999998</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" s="1">
+        <v>-0.62888305681898282</v>
+      </c>
+      <c r="I36" s="1">
+        <v>-9.8119900484549716E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44449</v>
       </c>
@@ -1556,8 +1793,14 @@
       <c r="G37" s="1">
         <v>9.9861303999999998E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" s="1">
+        <v>-0.3204513211448638</v>
+      </c>
+      <c r="I37" s="1">
+        <v>-0.75094463548092016</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44450</v>
       </c>
@@ -1579,8 +1822,14 @@
       <c r="G38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" s="1">
+        <v>-1.0193400951874958</v>
+      </c>
+      <c r="I38" s="1">
+        <v>-0.56541202754393494</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>44452</v>
       </c>
@@ -1602,8 +1851,14 @@
       <c r="G39" s="1">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" s="1">
+        <v>-0.89317907392750828</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.22052469679833353</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>44453</v>
       </c>
@@ -1625,8 +1880,14 @@
       <c r="G40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" s="1">
+        <v>-0.93174512482162752</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.1185393475631743</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>44454</v>
       </c>
@@ -1648,8 +1909,14 @@
       <c r="G41" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" s="1">
+        <v>-0.44886751621415971</v>
+      </c>
+      <c r="I41" s="1">
+        <v>-1.4957616669431755</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>44455</v>
       </c>
@@ -1671,8 +1938,14 @@
       <c r="G42" s="1">
         <v>2.897987509</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" s="1">
+        <v>-0.60072087629392068</v>
+      </c>
+      <c r="I42" s="1">
+        <v>-1.0730679552679094</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>44456</v>
       </c>
@@ -1694,8 +1967,14 @@
       <c r="G43" s="1">
         <v>0.29937629900000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" s="1">
+        <v>-0.49824233757248526</v>
+      </c>
+      <c r="I43" s="1">
+        <v>-1.2012673403414655</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>44457</v>
       </c>
@@ -1717,8 +1996,14 @@
       <c r="G44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" s="1">
+        <v>-0.8211435261219977</v>
+      </c>
+      <c r="I44" s="1">
+        <v>-0.8884411712471495</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44458</v>
       </c>
@@ -1740,8 +2025,14 @@
       <c r="G45" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" s="1">
+        <v>-0.86214755095130968</v>
+      </c>
+      <c r="I45" s="1">
+        <v>-0.28733716022272215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44459</v>
       </c>
@@ -1763,8 +2054,14 @@
       <c r="G46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" s="1">
+        <v>-0.60170496920799577</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.34050528289590232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>44460</v>
       </c>
@@ -1786,8 +2083,14 @@
       <c r="G47" s="1">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" s="1">
+        <v>-0.47050902228476799</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.52767165621107115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>44461</v>
       </c>
@@ -1809,8 +2112,14 @@
       <c r="G48" s="1">
         <v>0.399722415</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" s="1">
+        <v>-0.65685044885076205</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.15110915980669953</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>44462</v>
       </c>
@@ -1832,8 +2141,14 @@
       <c r="G49" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" s="1">
+        <v>-0.91602158337665629</v>
+      </c>
+      <c r="I49" s="1">
+        <v>-0.59730033469664867</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>44463</v>
       </c>
@@ -1855,8 +2170,14 @@
       <c r="G50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" s="1">
+        <v>-0.9894034866440633</v>
+      </c>
+      <c r="I50" s="1">
+        <v>-0.30510307001504267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>44464</v>
       </c>
@@ -1878,8 +2199,14 @@
       <c r="G51" s="1">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" s="1">
+        <v>-0.6446746235661881</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.26410592525835769</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>44465</v>
       </c>
@@ -1901,8 +2228,14 @@
       <c r="G52" s="1">
         <v>0.50069540999999995</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" s="1">
+        <v>-1.3995398164623052</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.56242870276746604</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>44466</v>
       </c>
@@ -1924,8 +2257,32 @@
       <c r="G53" s="1">
         <v>0.19958419999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" s="1">
+        <v>-1.6029501183267281</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0.43139497406408461</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>44467</v>
       </c>
@@ -1947,8 +2304,35 @@
       <c r="G54" s="1">
         <v>1.5966735970000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" s="1">
+        <v>-1.1228047760931075</v>
+      </c>
+      <c r="I54" s="1">
+        <v>-5.7243468006182852E-2</v>
+      </c>
+      <c r="L54" t="s">
+        <v>9</v>
+      </c>
+      <c r="M54">
+        <v>4.3862836869259265</v>
+      </c>
+      <c r="N54">
+        <v>4.0451622772407418</v>
+      </c>
+      <c r="O54">
+        <v>2.3524025117777776</v>
+      </c>
+      <c r="P54">
+        <v>3.1083365935555554</v>
+      </c>
+      <c r="Q54">
+        <v>3.9555857677037043</v>
+      </c>
+      <c r="R54">
+        <v>2.5419281017407407</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>44468</v>
       </c>
@@ -1970,8 +2354,35 @@
       <c r="G55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" s="1">
+        <v>-0.81532791116902725</v>
+      </c>
+      <c r="I55" s="1">
+        <v>-0.79349352507762128</v>
+      </c>
+      <c r="L55" t="s">
+        <v>10</v>
+      </c>
+      <c r="M55">
+        <v>3.3357493170769228</v>
+      </c>
+      <c r="N55">
+        <v>2.8351770196923076</v>
+      </c>
+      <c r="O55">
+        <v>4.4914840441538466</v>
+      </c>
+      <c r="P55">
+        <v>2.0422349839230769</v>
+      </c>
+      <c r="Q55">
+        <v>2.3302828712307693</v>
+      </c>
+      <c r="R55">
+        <v>2.9354513676923082</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>44469</v>
       </c>
@@ -1993,8 +2404,14 @@
       <c r="G56" s="1">
         <v>7.6786703599999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56" s="1">
+        <v>-1.062872819093813</v>
+      </c>
+      <c r="I56" s="1">
+        <v>-0.38228402115844989</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2003,7 +2420,7 @@
         <v>4.3862836869259265</v>
       </c>
       <c r="C58">
-        <f t="shared" ref="C58:G58" si="1">AVERAGE(C3:C56)</f>
+        <f t="shared" ref="C58:I58" si="1">AVERAGE(C3:C56)</f>
         <v>4.0451622772407418</v>
       </c>
       <c r="D58">
@@ -2022,11 +2439,19 @@
         <f t="shared" si="1"/>
         <v>2.5419281017407407</v>
       </c>
+      <c r="H58">
+        <f>AVERAGE(H3:H56)</f>
+        <v>-0.75626753215799103</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>-0.68704964115945721</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="K1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
